--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABD/15/seed1/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABD/15/seed1/result_data_KNN.xlsx
@@ -488,7 +488,7 @@
         <v>-9.76</v>
       </c>
       <c r="D3" t="n">
-        <v>-6.336</v>
+        <v>-7.58</v>
       </c>
       <c r="E3" t="n">
         <v>13.95</v>
@@ -496,16 +496,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-21.022</v>
+        <v>-20.862</v>
       </c>
       <c r="B4" t="n">
-        <v>7.448</v>
+        <v>7.043000000000001</v>
       </c>
       <c r="C4" t="n">
         <v>-11.3</v>
       </c>
       <c r="D4" t="n">
-        <v>-7.644</v>
+        <v>-7.388999999999998</v>
       </c>
       <c r="E4" t="n">
         <v>10.77</v>
@@ -516,7 +516,7 @@
         <v>-23.4</v>
       </c>
       <c r="B5" t="n">
-        <v>6.478</v>
+        <v>6.250999999999999</v>
       </c>
       <c r="C5" t="n">
         <v>-15.14</v>
@@ -530,7 +530,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-20.7</v>
+        <v>-20.97</v>
       </c>
       <c r="B6" t="n">
         <v>7.87</v>
@@ -547,7 +547,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-20.798</v>
+        <v>-21.038</v>
       </c>
       <c r="B7" t="n">
         <v>6.56</v>
@@ -567,7 +567,7 @@
         <v>-21.48</v>
       </c>
       <c r="B8" t="n">
-        <v>5.938000000000001</v>
+        <v>6.347</v>
       </c>
       <c r="C8" t="n">
         <v>-11.02</v>
@@ -590,7 +590,7 @@
         <v>-13.02</v>
       </c>
       <c r="D9" t="n">
-        <v>-7.790000000000001</v>
+        <v>-7.631</v>
       </c>
       <c r="E9" t="n">
         <v>12.31</v>
@@ -624,7 +624,7 @@
         <v>-13.87</v>
       </c>
       <c r="D11" t="n">
-        <v>-8.602</v>
+        <v>-8.513999999999999</v>
       </c>
       <c r="E11" t="n">
         <v>13.91</v>
@@ -675,7 +675,7 @@
         <v>-11.89</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.790000000000001</v>
+        <v>-7.694999999999999</v>
       </c>
       <c r="E14" t="n">
         <v>12.97</v>
@@ -700,10 +700,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.168</v>
+        <v>-21.119</v>
       </c>
       <c r="B16" t="n">
-        <v>6.476000000000001</v>
+        <v>6.611</v>
       </c>
       <c r="C16" t="n">
         <v>-9.779999999999999</v>
@@ -743,7 +743,7 @@
         <v>-15.19</v>
       </c>
       <c r="D18" t="n">
-        <v>-8.372</v>
+        <v>-8.210000000000003</v>
       </c>
       <c r="E18" t="n">
         <v>12.54</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-22.208</v>
+        <v>-22.121</v>
       </c>
       <c r="B20" t="n">
         <v>5.51</v>
@@ -805,7 +805,7 @@
         <v>-20.95</v>
       </c>
       <c r="B22" t="n">
-        <v>6.476000000000001</v>
+        <v>7.202000000000001</v>
       </c>
       <c r="C22" t="n">
         <v>-10.65</v>
@@ -862,7 +862,7 @@
         <v>-14.32</v>
       </c>
       <c r="D25" t="n">
-        <v>-8.896000000000001</v>
+        <v>-8.411999999999999</v>
       </c>
       <c r="E25" t="n">
         <v>15.03</v>
